--- a/sample/sales_analysis/summary.xlsx
+++ b/sample/sales_analysis/summary.xlsx
@@ -7,29 +7,79 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="売上" sheetId="1" r:id="rId1"/>
-    <sheet name="取引先ごとの売上" sheetId="2" r:id="rId2"/>
-    <sheet name="流入元ごとの売上" sheetId="3" r:id="rId3"/>
+    <sheet name="売上サマリー" sheetId="1" r:id="rId1"/>
+    <sheet name="流入元ごとの売上" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+  <si>
+    <t>取引先名</t>
+  </si>
+  <si>
+    <t>流入元</t>
+  </si>
   <si>
     <t>営業担当</t>
   </si>
   <si>
-    <t>取引先名</t>
-  </si>
-  <si>
     <t>商品名</t>
   </si>
   <si>
     <t>売上金額</t>
   </si>
   <si>
+    <t>取引先A</t>
+  </si>
+  <si>
+    <t>取引先B</t>
+  </si>
+  <si>
+    <t>取引先C</t>
+  </si>
+  <si>
+    <t>取引先D</t>
+  </si>
+  <si>
+    <t>取引先E</t>
+  </si>
+  <si>
+    <t>取引先F</t>
+  </si>
+  <si>
+    <t>取引先G</t>
+  </si>
+  <si>
+    <t>取引先H</t>
+  </si>
+  <si>
+    <t>取引先I</t>
+  </si>
+  <si>
+    <t>取引先J</t>
+  </si>
+  <si>
+    <t>取引先K</t>
+  </si>
+  <si>
+    <t>2019年度展示会</t>
+  </si>
+  <si>
+    <t>2019年10月DM</t>
+  </si>
+  <si>
+    <t>2019年8月DM</t>
+  </si>
+  <si>
+    <t>顧客からの紹介</t>
+  </si>
+  <si>
+    <t>テレアポ</t>
+  </si>
+  <si>
     <t>鈴木</t>
   </si>
   <si>
@@ -42,61 +92,10 @@
     <t>村上</t>
   </si>
   <si>
-    <t>取引先A</t>
-  </si>
-  <si>
-    <t>取引先B</t>
-  </si>
-  <si>
-    <t>取引先C</t>
-  </si>
-  <si>
-    <t>取引先D</t>
-  </si>
-  <si>
-    <t>取引先E</t>
-  </si>
-  <si>
-    <t>取引先F</t>
-  </si>
-  <si>
-    <t>取引先G</t>
-  </si>
-  <si>
-    <t>取引先H</t>
-  </si>
-  <si>
-    <t>取引先I</t>
-  </si>
-  <si>
-    <t>取引先J</t>
-  </si>
-  <si>
-    <t>取引先K</t>
-  </si>
-  <si>
     <t>機械A</t>
   </si>
   <si>
     <t>機械B</t>
-  </si>
-  <si>
-    <t>流入元</t>
-  </si>
-  <si>
-    <t>2019年10月DM</t>
-  </si>
-  <si>
-    <t>2019年8月DM</t>
-  </si>
-  <si>
-    <t>2019年度展示会</t>
-  </si>
-  <si>
-    <t>テレアポ</t>
-  </si>
-  <si>
-    <t>顧客からの紹介</t>
   </si>
 </sst>
 </file>
@@ -454,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,25 +472,31 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>600000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -499,16 +504,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -516,420 +524,495 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>810000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>1240000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
         <v>1080000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>930000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>1240000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24">
-        <v>1550000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25">
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
         <v>1450000</v>
       </c>
     </row>
@@ -939,115 +1022,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>990000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1750000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2970000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>3720000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1920000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1320000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2900000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1057,15 +1031,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>6220000</v>
@@ -1073,7 +1047,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1990000</v>
@@ -1081,7 +1055,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3920000</v>
@@ -1089,7 +1063,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>6690000</v>
@@ -1097,7 +1071,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>1750000</v>
